--- a/Code/Results/Cases/Case_0_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_150/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4303758825066097</v>
+        <v>0.4113150465972808</v>
       </c>
       <c r="D2">
-        <v>0.02823400681499777</v>
+        <v>0.04122572234101796</v>
       </c>
       <c r="E2">
-        <v>0.193149948940345</v>
+        <v>0.1738898040101944</v>
       </c>
       <c r="F2">
-        <v>2.480562623052435</v>
+        <v>1.595332469086827</v>
       </c>
       <c r="G2">
-        <v>0.0007396821666271131</v>
+        <v>0.002439077633538228</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1786129369204446</v>
+        <v>0.151871925898881</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.645358351891218</v>
+        <v>5.764297367248673</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3807386676271278</v>
+        <v>0.4025426414724507</v>
       </c>
       <c r="D3">
-        <v>0.02547449408844216</v>
+        <v>0.0409752187229131</v>
       </c>
       <c r="E3">
-        <v>0.1703044342602169</v>
+        <v>0.1697737840432509</v>
       </c>
       <c r="F3">
-        <v>2.160145847444497</v>
+        <v>1.52810265361525</v>
       </c>
       <c r="G3">
-        <v>0.0007489774306883579</v>
+        <v>0.002445006841072626</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1570120035722198</v>
+        <v>0.1479145768505319</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.535892889105128</v>
+        <v>5.534998599706682</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3511876936291856</v>
+        <v>0.3974091552251764</v>
       </c>
       <c r="D4">
-        <v>0.0238688239659659</v>
+        <v>0.04084533152758496</v>
       </c>
       <c r="E4">
-        <v>0.1567058538966251</v>
+        <v>0.1673565443794125</v>
       </c>
       <c r="F4">
-        <v>1.9685605630293</v>
+        <v>1.487888719256958</v>
       </c>
       <c r="G4">
-        <v>0.0007548224953420493</v>
+        <v>0.002448838950579539</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1441564766736576</v>
+        <v>0.1455834063616166</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.872969618722777</v>
+        <v>5.398053472804747</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3393508516556381</v>
+        <v>0.3953804566620249</v>
       </c>
       <c r="D5">
-        <v>0.02323407022480595</v>
+        <v>0.04079838412166481</v>
       </c>
       <c r="E5">
-        <v>0.1512590629771857</v>
+        <v>0.1663989955514644</v>
       </c>
       <c r="F5">
-        <v>1.891615743196041</v>
+        <v>1.471766925594508</v>
       </c>
       <c r="G5">
-        <v>0.0007572414085673662</v>
+        <v>0.002450448910912578</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.139007556803989</v>
+        <v>0.1446580720818957</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.606829434000417</v>
+        <v>5.343206354397068</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3373970057875226</v>
+        <v>0.3950474027089399</v>
       </c>
       <c r="D6">
-        <v>0.02312977795171278</v>
+        <v>0.04079094892836821</v>
       </c>
       <c r="E6">
-        <v>0.1503599926657024</v>
+        <v>0.1662416511366089</v>
       </c>
       <c r="F6">
-        <v>1.87890263494684</v>
+        <v>1.469105898554105</v>
       </c>
       <c r="G6">
-        <v>0.000757645367137129</v>
+        <v>0.002450719168961442</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1381576607121886</v>
+        <v>0.1445059040535739</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.562862797678861</v>
+        <v>5.334156736101477</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3510272605372222</v>
+        <v>0.3973815398675811</v>
       </c>
       <c r="D7">
-        <v>0.02386018759624164</v>
+        <v>0.04084467419867366</v>
       </c>
       <c r="E7">
-        <v>0.156632029267989</v>
+        <v>0.1673435194300588</v>
       </c>
       <c r="F7">
-        <v>1.967518501805145</v>
+        <v>1.487670222138732</v>
       </c>
       <c r="G7">
-        <v>0.0007548549648914807</v>
+        <v>0.002448860466971853</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1440866887103738</v>
+        <v>0.1455708274521186</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.86936487885896</v>
+        <v>5.397309912077446</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4130511958568377</v>
+        <v>0.4082376467136442</v>
       </c>
       <c r="D8">
-        <v>0.02726237322735869</v>
+        <v>0.04113436324526987</v>
       </c>
       <c r="E8">
-        <v>0.1851755622608451</v>
+        <v>0.1724476636962251</v>
       </c>
       <c r="F8">
-        <v>2.368907180583875</v>
+        <v>1.571929136775651</v>
       </c>
       <c r="G8">
-        <v>0.0007428600849381018</v>
+        <v>0.002441082374753944</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1710723055937251</v>
+        <v>0.1504868499154455</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.258641174518118</v>
+        <v>5.684432272078766</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5434426232047258</v>
+        <v>0.4315490945530769</v>
       </c>
       <c r="D9">
-        <v>0.03478059461857441</v>
+        <v>0.04189385585825534</v>
       </c>
       <c r="E9">
-        <v>0.2452198723433625</v>
+        <v>0.1833381646392098</v>
       </c>
       <c r="F9">
-        <v>3.205501436832265</v>
+        <v>1.745725099980262</v>
       </c>
       <c r="G9">
-        <v>0.0007203105383862499</v>
+        <v>0.002427341336586569</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2278750332135786</v>
+        <v>0.1609184648719122</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.15858495841093</v>
+        <v>6.278378879144213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6468607918905889</v>
+        <v>0.449934901070776</v>
       </c>
       <c r="D10">
-        <v>0.04105703818959938</v>
+        <v>0.04257091168715732</v>
       </c>
       <c r="E10">
-        <v>0.2928976422856451</v>
+        <v>0.1918894678433531</v>
       </c>
       <c r="F10">
-        <v>3.864173394417122</v>
+        <v>1.87880370553313</v>
       </c>
       <c r="G10">
-        <v>0.0007041430500777102</v>
+        <v>0.00241815606995382</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2730285018473495</v>
+        <v>0.1690778548397418</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.44535920932992</v>
+        <v>6.734186266718609</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6961785314880728</v>
+        <v>0.4585782732343091</v>
       </c>
       <c r="D11">
-        <v>0.04414221182856437</v>
+        <v>0.04290530830628825</v>
       </c>
       <c r="E11">
-        <v>0.3156542770146302</v>
+        <v>0.1959019978053647</v>
       </c>
       <c r="F11">
-        <v>4.17712731434824</v>
+        <v>1.940553300038601</v>
       </c>
       <c r="G11">
-        <v>0.0006968230534001496</v>
+        <v>0.002414172684373321</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2945985437327465</v>
+        <v>0.1729002115147011</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.53288756793438</v>
+        <v>6.945899248271871</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.7152426551909059</v>
+        <v>0.4618919340925629</v>
       </c>
       <c r="D12">
-        <v>0.04535047067307829</v>
+        <v>0.04303577475405262</v>
       </c>
       <c r="E12">
-        <v>0.3244547607763764</v>
+        <v>0.1974392716319073</v>
       </c>
       <c r="F12">
-        <v>4.297927760413131</v>
+        <v>1.964113322163229</v>
       </c>
       <c r="G12">
-        <v>0.000694050966557197</v>
+        <v>0.002412692139231848</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3029435203422963</v>
+        <v>0.1743637640832532</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.95284430556353</v>
+        <v>7.026707033161301</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.7111184726854844</v>
+        <v>0.4611764656208379</v>
       </c>
       <c r="D13">
-        <v>0.04508834797845651</v>
+        <v>0.04300750511698226</v>
       </c>
       <c r="E13">
-        <v>0.322550752541197</v>
+        <v>0.1971073966082457</v>
       </c>
       <c r="F13">
-        <v>4.271802606726055</v>
+        <v>1.959031345373717</v>
       </c>
       <c r="G13">
-        <v>0.0006946480838734899</v>
+        <v>0.002413009764156981</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3011378994965384</v>
+        <v>0.1740478421137368</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.86201355086121</v>
+        <v>7.009275167049168</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6977387684115399</v>
+        <v>0.4588500740291579</v>
       </c>
       <c r="D14">
-        <v>0.04424077047945474</v>
+        <v>0.04291596470515913</v>
       </c>
       <c r="E14">
-        <v>0.3163744422049106</v>
+        <v>0.196028112029289</v>
       </c>
       <c r="F14">
-        <v>4.187017324511572</v>
+        <v>1.942488039117393</v>
       </c>
       <c r="G14">
-        <v>0.0006965950280710428</v>
+        <v>0.002414050321453078</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2952813617988284</v>
+        <v>0.1730202948354673</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.56726616115157</v>
+        <v>6.952534540459965</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6895959333293149</v>
+        <v>0.4574303918062981</v>
       </c>
       <c r="D15">
-        <v>0.04372703834523151</v>
+        <v>0.04286039458749968</v>
       </c>
       <c r="E15">
-        <v>0.3126160745172228</v>
+        <v>0.195369345228471</v>
       </c>
       <c r="F15">
-        <v>4.135394597206499</v>
+        <v>1.93237788723826</v>
       </c>
       <c r="G15">
-        <v>0.0006977873986206346</v>
+        <v>0.002414691318154578</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2917180395914727</v>
+        <v>0.1723929964417721</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.38782773387663</v>
+        <v>6.917862456505873</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.643688533433874</v>
+        <v>0.4493756962201019</v>
       </c>
       <c r="D16">
-        <v>0.04086060220342347</v>
+        <v>0.04254959283773729</v>
       </c>
       <c r="E16">
-        <v>0.2914343364202381</v>
+        <v>0.1916297216247429</v>
       </c>
       <c r="F16">
-        <v>3.844019877093785</v>
+        <v>1.874792821859529</v>
       </c>
       <c r="G16">
-        <v>0.0007046217059835155</v>
+        <v>0.002418420303860329</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2716419170105979</v>
+        <v>0.1688302978953971</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.37534687177458</v>
+        <v>6.720438916590922</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.6161486038037651</v>
+        <v>0.4445062899978893</v>
       </c>
       <c r="D17">
-        <v>0.0391655418564838</v>
+        <v>0.04236571691646418</v>
       </c>
       <c r="E17">
-        <v>0.2787329552054842</v>
+        <v>0.1893671001002986</v>
       </c>
       <c r="F17">
-        <v>3.668930829356071</v>
+        <v>1.839778358249163</v>
       </c>
       <c r="G17">
-        <v>0.0007088198110211574</v>
+        <v>0.002420757748856285</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2596085389491378</v>
+        <v>0.1666731710256926</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.76720963114201</v>
+        <v>6.600450126405235</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6005179858998417</v>
+        <v>0.4417318269260875</v>
       </c>
       <c r="D18">
-        <v>0.03821175197199977</v>
+        <v>0.04226243875673674</v>
       </c>
       <c r="E18">
-        <v>0.2715259267671968</v>
+        <v>0.1880772180152945</v>
       </c>
       <c r="F18">
-        <v>3.569452145934036</v>
+        <v>1.819752836722699</v>
       </c>
       <c r="G18">
-        <v>0.0007112380676047684</v>
+        <v>0.002422120553378762</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2527821693376353</v>
+        <v>0.1654428473609784</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.42178165818177</v>
+        <v>6.531845942677819</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5952600128689483</v>
+        <v>0.4407969447695734</v>
       </c>
       <c r="D19">
-        <v>0.03789226111670274</v>
+        <v>0.0422278956588471</v>
       </c>
       <c r="E19">
-        <v>0.2691018445924698</v>
+        <v>0.1876424582821912</v>
       </c>
       <c r="F19">
-        <v>3.535970819949085</v>
+        <v>1.812992018896381</v>
       </c>
       <c r="G19">
-        <v>0.0007120576122543061</v>
+        <v>0.002422585135804745</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2504863796554275</v>
+        <v>0.1650280607491368</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.30553679531079</v>
+        <v>6.508687920264265</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6190581666900528</v>
+        <v>0.4450219227506977</v>
       </c>
       <c r="D20">
-        <v>0.03934374780094174</v>
+        <v>0.04238503360717516</v>
       </c>
       <c r="E20">
-        <v>0.2800746499466484</v>
+        <v>0.1896067665180183</v>
       </c>
       <c r="F20">
-        <v>3.68743975098019</v>
+        <v>1.843493903818882</v>
       </c>
       <c r="G20">
-        <v>0.0007083725757358348</v>
+        <v>0.002420507024275393</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2608794965583883</v>
+        <v>0.1669017231800183</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.831487035122</v>
+        <v>6.613180618654496</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.7016576199980875</v>
+        <v>0.4595322864317666</v>
       </c>
       <c r="D21">
-        <v>0.04448857786908889</v>
+        <v>0.04294274785461027</v>
       </c>
       <c r="E21">
-        <v>0.3181833456617369</v>
+        <v>0.1963446389377665</v>
       </c>
       <c r="F21">
-        <v>4.211855300239904</v>
+        <v>1.947342390297166</v>
       </c>
       <c r="G21">
-        <v>0.0006960232131515944</v>
+        <v>0.002413743929296873</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2969965133918322</v>
+        <v>0.173321671542169</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.65360805409955</v>
+        <v>6.969183284980318</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7579429551381054</v>
+        <v>0.4692525077707899</v>
       </c>
       <c r="D22">
-        <v>0.04808827149578576</v>
+        <v>0.04332963540511514</v>
       </c>
       <c r="E22">
-        <v>0.3441741566809569</v>
+        <v>0.2008521682772013</v>
       </c>
       <c r="F22">
-        <v>4.568173154447095</v>
+        <v>2.016245085770464</v>
       </c>
       <c r="G22">
-        <v>0.0006879481736073471</v>
+        <v>0.002409486263778384</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3216493219794359</v>
+        <v>0.1776114721327957</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.89267736597856</v>
+        <v>7.205566999775215</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7276684297698353</v>
+        <v>0.4640428353814912</v>
       </c>
       <c r="D23">
-        <v>0.04614267985692067</v>
+        <v>0.04312108369589396</v>
       </c>
       <c r="E23">
-        <v>0.3301919683131942</v>
+        <v>0.1984368371623404</v>
       </c>
       <c r="F23">
-        <v>4.376614696381097</v>
+        <v>1.979375152919403</v>
       </c>
       <c r="G23">
-        <v>0.0006922602841496793</v>
+        <v>0.002411743855429273</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3083848130502389</v>
+        <v>0.1753132561371586</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.22644593706491</v>
+        <v>7.079061535084975</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.617742127225398</v>
+        <v>0.4447887272710034</v>
       </c>
       <c r="D24">
-        <v>0.0392631168482751</v>
+        <v>0.04237629295154477</v>
       </c>
       <c r="E24">
-        <v>0.2794677754909571</v>
+        <v>0.189498379303636</v>
       </c>
       <c r="F24">
-        <v>3.67906821230207</v>
+        <v>1.841813779557327</v>
       </c>
       <c r="G24">
-        <v>0.0007085747557532551</v>
+        <v>0.002420620317754585</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2603046128539859</v>
+        <v>0.1667983641250146</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.80241424205275</v>
+        <v>6.607423983390618</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.5070145623487008</v>
+        <v>0.4250235504886746</v>
       </c>
       <c r="D25">
-        <v>0.03263401838832891</v>
+        <v>0.04166765987363874</v>
       </c>
       <c r="E25">
-        <v>0.2284382103032172</v>
+        <v>0.180296338334891</v>
       </c>
       <c r="F25">
-        <v>2.972571303467191</v>
+        <v>1.697774433799481</v>
       </c>
       <c r="G25">
-        <v>0.0007263250399184296</v>
+        <v>0.002430897980138169</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2119931041185623</v>
+        <v>0.1580104031887259</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.35062602493451</v>
+        <v>6.114331337941053</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_150/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4113150465972808</v>
+        <v>0.4303758825068655</v>
       </c>
       <c r="D2">
-        <v>0.04122572234101796</v>
+        <v>0.02823400681521093</v>
       </c>
       <c r="E2">
-        <v>0.1738898040101944</v>
+        <v>0.1931499489403379</v>
       </c>
       <c r="F2">
-        <v>1.595332469086827</v>
+        <v>2.480562623052435</v>
       </c>
       <c r="G2">
-        <v>0.002439077633538228</v>
+        <v>0.000739682166625132</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.151871925898881</v>
+        <v>0.1786129369204801</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.764297367248673</v>
+        <v>8.645358351891275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4025426414724507</v>
+        <v>0.3807386676270994</v>
       </c>
       <c r="D3">
-        <v>0.0409752187229131</v>
+        <v>0.02547449408844571</v>
       </c>
       <c r="E3">
-        <v>0.1697737840432509</v>
+        <v>0.1703044342602098</v>
       </c>
       <c r="F3">
-        <v>1.52810265361525</v>
+        <v>2.160145847444497</v>
       </c>
       <c r="G3">
-        <v>0.002445006841072626</v>
+        <v>0.0007489774306887046</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1479145768505319</v>
+        <v>0.1570120035722695</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.534998599706682</v>
+        <v>7.535892889105071</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3974091552251764</v>
+        <v>0.3511876936291856</v>
       </c>
       <c r="D4">
-        <v>0.04084533152758496</v>
+        <v>0.02386882396607248</v>
       </c>
       <c r="E4">
-        <v>0.1673565443794125</v>
+        <v>0.1567058538966251</v>
       </c>
       <c r="F4">
-        <v>1.487888719256958</v>
+        <v>1.9685605630293</v>
       </c>
       <c r="G4">
-        <v>0.002448838950579539</v>
+        <v>0.0007548224953424079</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1455834063616166</v>
+        <v>0.1441564766736008</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.398053472804747</v>
+        <v>6.872969618722777</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3953804566620249</v>
+        <v>0.3393508516558654</v>
       </c>
       <c r="D5">
-        <v>0.04079838412166481</v>
+        <v>0.02323407022482726</v>
       </c>
       <c r="E5">
-        <v>0.1663989955514644</v>
+        <v>0.1512590629771893</v>
       </c>
       <c r="F5">
-        <v>1.471766925594508</v>
+        <v>1.891615743195999</v>
       </c>
       <c r="G5">
-        <v>0.002450448910912578</v>
+        <v>0.0007572414085230917</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1446580720818957</v>
+        <v>0.1390075568041169</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.343206354397068</v>
+        <v>6.606829434000417</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3950474027089399</v>
+        <v>0.3373970057882048</v>
       </c>
       <c r="D6">
-        <v>0.04079094892836821</v>
+        <v>0.02312977795170212</v>
       </c>
       <c r="E6">
-        <v>0.1662416511366089</v>
+        <v>0.1503599926657699</v>
       </c>
       <c r="F6">
-        <v>1.469105898554105</v>
+        <v>1.878902634946826</v>
       </c>
       <c r="G6">
-        <v>0.002450719168961442</v>
+        <v>0.0007576453671882051</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1445059040535739</v>
+        <v>0.1381576607120607</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.334156736101477</v>
+        <v>6.562862797678861</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3973815398675811</v>
+        <v>0.3510272605377054</v>
       </c>
       <c r="D7">
-        <v>0.04084467419867366</v>
+        <v>0.02386018759622388</v>
       </c>
       <c r="E7">
-        <v>0.1673435194300588</v>
+        <v>0.1566320292679855</v>
       </c>
       <c r="F7">
-        <v>1.487670222138732</v>
+        <v>1.967518501805117</v>
       </c>
       <c r="G7">
-        <v>0.002448860466971853</v>
+        <v>0.0007548549648391892</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1455708274521186</v>
+        <v>0.1440866887104235</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.397309912077446</v>
+        <v>6.869364878859017</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4082376467136442</v>
+        <v>0.4130511958568661</v>
       </c>
       <c r="D8">
-        <v>0.04113436324526987</v>
+        <v>0.02726237322725211</v>
       </c>
       <c r="E8">
-        <v>0.1724476636962251</v>
+        <v>0.1851755622608451</v>
       </c>
       <c r="F8">
-        <v>1.571929136775651</v>
+        <v>2.368907180583903</v>
       </c>
       <c r="G8">
-        <v>0.002441082374753944</v>
+        <v>0.0007428600849376577</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1504868499154455</v>
+        <v>0.1710723055937109</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.684432272078766</v>
+        <v>8.258641174518118</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4315490945530769</v>
+        <v>0.5434426232045553</v>
       </c>
       <c r="D9">
-        <v>0.04189385585825534</v>
+        <v>0.03478059461870942</v>
       </c>
       <c r="E9">
-        <v>0.1833381646392098</v>
+        <v>0.2452198723433554</v>
       </c>
       <c r="F9">
-        <v>1.745725099980262</v>
+        <v>3.205501436832236</v>
       </c>
       <c r="G9">
-        <v>0.002427341336586569</v>
+        <v>0.0007203105383220236</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1609184648719122</v>
+        <v>0.2278750332137633</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.278378879144213</v>
+        <v>11.15858495841104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.449934901070776</v>
+        <v>0.6468607918905604</v>
       </c>
       <c r="D10">
-        <v>0.04257091168715732</v>
+        <v>0.04105703818959228</v>
       </c>
       <c r="E10">
-        <v>0.1918894678433531</v>
+        <v>0.2928976422856024</v>
       </c>
       <c r="F10">
-        <v>1.87880370553313</v>
+        <v>3.864173394417151</v>
       </c>
       <c r="G10">
-        <v>0.00241815606995382</v>
+        <v>0.0007041430500076372</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1690778548397418</v>
+        <v>0.2730285018474063</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.734186266718609</v>
+        <v>13.44535920932992</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4585782732343091</v>
+        <v>0.6961785314875044</v>
       </c>
       <c r="D11">
-        <v>0.04290530830628825</v>
+        <v>0.04414221182870648</v>
       </c>
       <c r="E11">
-        <v>0.1959019978053647</v>
+        <v>0.3156542770146586</v>
       </c>
       <c r="F11">
-        <v>1.940553300038601</v>
+        <v>4.17712731434824</v>
       </c>
       <c r="G11">
-        <v>0.002414172684373321</v>
+        <v>0.0006968230534717513</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1729002115147011</v>
+        <v>0.2945985437326328</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.945899248271871</v>
+        <v>14.53288756793449</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4618919340925629</v>
+        <v>0.715242655190707</v>
       </c>
       <c r="D12">
-        <v>0.04303577475405262</v>
+        <v>0.04535047067280118</v>
       </c>
       <c r="E12">
-        <v>0.1974392716319073</v>
+        <v>0.3244547607763693</v>
       </c>
       <c r="F12">
-        <v>1.964113322163229</v>
+        <v>4.29792776041316</v>
       </c>
       <c r="G12">
-        <v>0.002412692139231848</v>
+        <v>0.0006940509665033197</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1743637640832532</v>
+        <v>0.3029435203421968</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.026707033161301</v>
+        <v>14.95284430556364</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4611764656208379</v>
+        <v>0.7111184726854276</v>
       </c>
       <c r="D13">
-        <v>0.04300750511698226</v>
+        <v>0.04508834797846362</v>
       </c>
       <c r="E13">
-        <v>0.1971073966082457</v>
+        <v>0.3225507525412041</v>
       </c>
       <c r="F13">
-        <v>1.959031345373717</v>
+        <v>4.271802606726112</v>
       </c>
       <c r="G13">
-        <v>0.002413009764156981</v>
+        <v>0.0006946480838742266</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1740478421137368</v>
+        <v>0.3011378994965384</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>7.009275167049168</v>
+        <v>14.86201355086132</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4588500740291579</v>
+        <v>0.6977387684112273</v>
       </c>
       <c r="D14">
-        <v>0.04291596470515913</v>
+        <v>0.04424077047924158</v>
       </c>
       <c r="E14">
-        <v>0.196028112029289</v>
+        <v>0.3163744422049461</v>
       </c>
       <c r="F14">
-        <v>1.942488039117393</v>
+        <v>4.187017324511601</v>
       </c>
       <c r="G14">
-        <v>0.002414050321453078</v>
+        <v>0.0006965950280701384</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1730202948354673</v>
+        <v>0.2952813617984873</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.952534540459965</v>
+        <v>14.56726616115179</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4574303918062981</v>
+        <v>0.6895959333291728</v>
       </c>
       <c r="D15">
-        <v>0.04286039458749968</v>
+        <v>0.04372703834523151</v>
       </c>
       <c r="E15">
-        <v>0.195369345228471</v>
+        <v>0.3126160745172015</v>
       </c>
       <c r="F15">
-        <v>1.93237788723826</v>
+        <v>4.135394597206499</v>
       </c>
       <c r="G15">
-        <v>0.002414691318154578</v>
+        <v>0.0006977873985328642</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1723929964417721</v>
+        <v>0.2917180395915437</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.917862456505873</v>
+        <v>14.38782773387663</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4493756962201019</v>
+        <v>0.6436885334336182</v>
       </c>
       <c r="D16">
-        <v>0.04254959283773729</v>
+        <v>0.04086060220343768</v>
       </c>
       <c r="E16">
-        <v>0.1916297216247429</v>
+        <v>0.2914343364202452</v>
       </c>
       <c r="F16">
-        <v>1.874792821859529</v>
+        <v>3.844019877093785</v>
       </c>
       <c r="G16">
-        <v>0.002418420303860329</v>
+        <v>0.0007046217059281287</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1688302978953971</v>
+        <v>0.2716419170105837</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.720438916590922</v>
+        <v>13.37534687177464</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4445062899978893</v>
+        <v>0.6161486038039925</v>
       </c>
       <c r="D17">
-        <v>0.04236571691646418</v>
+        <v>0.03916554185646248</v>
       </c>
       <c r="E17">
-        <v>0.1893671001002986</v>
+        <v>0.2787329552054842</v>
       </c>
       <c r="F17">
-        <v>1.839778358249163</v>
+        <v>3.668930829356071</v>
       </c>
       <c r="G17">
-        <v>0.002420757748856285</v>
+        <v>0.0007088198110213328</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1666731710256926</v>
+        <v>0.2596085389492373</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.600450126405235</v>
+        <v>12.76720963114212</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4417318269260875</v>
+        <v>0.600517985899387</v>
       </c>
       <c r="D18">
-        <v>0.04226243875673674</v>
+        <v>0.03821175197249005</v>
       </c>
       <c r="E18">
-        <v>0.1880772180152945</v>
+        <v>0.2715259267671613</v>
       </c>
       <c r="F18">
-        <v>1.819752836722699</v>
+        <v>3.569452145934065</v>
       </c>
       <c r="G18">
-        <v>0.002422120553378762</v>
+        <v>0.0007112380676582759</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1654428473609784</v>
+        <v>0.2527821693377916</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.531845942677819</v>
+        <v>12.42178165818177</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4407969447695734</v>
+        <v>0.5952600128686925</v>
       </c>
       <c r="D19">
-        <v>0.0422278956588471</v>
+        <v>0.03789226111657484</v>
       </c>
       <c r="E19">
-        <v>0.1876424582821912</v>
+        <v>0.2691018445924698</v>
       </c>
       <c r="F19">
-        <v>1.812992018896381</v>
+        <v>3.535970819949085</v>
       </c>
       <c r="G19">
-        <v>0.002422585135804745</v>
+        <v>0.0007120576123206974</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1650280607491368</v>
+        <v>0.2504863796553565</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.508687920264265</v>
+        <v>12.30553679531079</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4450219227506977</v>
+        <v>0.6190581666899959</v>
       </c>
       <c r="D20">
-        <v>0.04238503360717516</v>
+        <v>0.03934374780092043</v>
       </c>
       <c r="E20">
-        <v>0.1896067665180183</v>
+        <v>0.2800746499466555</v>
       </c>
       <c r="F20">
-        <v>1.843493903818882</v>
+        <v>3.68743975098019</v>
       </c>
       <c r="G20">
-        <v>0.002420507024275393</v>
+        <v>0.0007083725757908889</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1669017231800183</v>
+        <v>0.2608794965583172</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.613180618654496</v>
+        <v>12.83148703512194</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4595322864317666</v>
+        <v>0.7016576199981159</v>
       </c>
       <c r="D21">
-        <v>0.04294274785461027</v>
+        <v>0.04448857786886862</v>
       </c>
       <c r="E21">
-        <v>0.1963446389377665</v>
+        <v>0.3181833456617298</v>
       </c>
       <c r="F21">
-        <v>1.947342390297166</v>
+        <v>4.211855300239876</v>
       </c>
       <c r="G21">
-        <v>0.002413743929296873</v>
+        <v>0.0006960232133472568</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.173321671542169</v>
+        <v>0.2969965133916332</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.969183284980318</v>
+        <v>14.65360805409944</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4692525077707899</v>
+        <v>0.7579429551380201</v>
       </c>
       <c r="D22">
-        <v>0.04332963540511514</v>
+        <v>0.04808827149614814</v>
       </c>
       <c r="E22">
-        <v>0.2008521682772013</v>
+        <v>0.3441741566809569</v>
       </c>
       <c r="F22">
-        <v>2.016245085770464</v>
+        <v>4.568173154447095</v>
       </c>
       <c r="G22">
-        <v>0.002409486263778384</v>
+        <v>0.0006879481736618528</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1776114721327957</v>
+        <v>0.3216493219794501</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>7.205566999775215</v>
+        <v>15.89267736597844</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4640428353814912</v>
+        <v>0.7276684297703753</v>
       </c>
       <c r="D23">
-        <v>0.04312108369589396</v>
+        <v>0.04614267985692067</v>
       </c>
       <c r="E23">
-        <v>0.1984368371623404</v>
+        <v>0.3301919683132155</v>
       </c>
       <c r="F23">
-        <v>1.979375152919403</v>
+        <v>4.376614696381068</v>
       </c>
       <c r="G23">
-        <v>0.002411743855429273</v>
+        <v>0.0006922602841512251</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1753132561371586</v>
+        <v>0.3083848130501252</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.079061535084975</v>
+        <v>15.22644593706502</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4447887272710034</v>
+        <v>0.617742127225398</v>
       </c>
       <c r="D24">
-        <v>0.04237629295154477</v>
+        <v>0.03926311684850958</v>
       </c>
       <c r="E24">
-        <v>0.189498379303636</v>
+        <v>0.2794677754909003</v>
       </c>
       <c r="F24">
-        <v>1.841813779557327</v>
+        <v>3.67906821230207</v>
       </c>
       <c r="G24">
-        <v>0.002420620317754585</v>
+        <v>0.0007085747557548721</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1667983641250146</v>
+        <v>0.2603046128538438</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.607423983390618</v>
+        <v>12.80241424205269</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4250235504886746</v>
+        <v>0.5070145623484734</v>
       </c>
       <c r="D25">
-        <v>0.04166765987363874</v>
+        <v>0.0326340183884426</v>
       </c>
       <c r="E25">
-        <v>0.180296338334891</v>
+        <v>0.2284382103031959</v>
       </c>
       <c r="F25">
-        <v>1.697774433799481</v>
+        <v>2.972571303467191</v>
       </c>
       <c r="G25">
-        <v>0.002430897980138169</v>
+        <v>0.0007263250399199983</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1580104031887259</v>
+        <v>0.2119931041184913</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.114331337941053</v>
+        <v>10.35062602493451</v>
       </c>
     </row>
   </sheetData>
